--- a/CMMSAPIs/Upload/52/0/0/Book1.xlsx
+++ b/CMMSAPIs/Upload/52/0/0/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6441389-AF94-48DE-ADB3-D6698B894B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41602D12-32A3-4748-9778-DECAA7294C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2F91C157-84E8-49AC-B141-D49A8A96528B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Plant_Name</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Basic</t>
   </si>
   <si>
-    <t>KIPP &amp; ZONEN ROW 1</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -195,17 +192,23 @@
     <t>Vivaan Operations</t>
   </si>
   <si>
+    <t>KIPP &amp; ZONEN ROW 2</t>
+  </si>
+  <si>
     <t>Asset_Warranty_Provider</t>
   </si>
   <si>
     <t>PD Kote_MCR_Pyronometer_POA 1</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +229,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -239,8 +236,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +286,12 @@
         <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFB8CCE4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -362,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -388,17 +409,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,8 +427,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC9A96E-8725-480A-B20D-D0A070ED7AB8}">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +767,7 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -811,7 +843,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
@@ -913,31 +945,27 @@
         <v>42</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="12">
+      <c r="R2" s="11">
         <v>45358</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="11">
         <v>45358</v>
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
@@ -945,20 +973,260 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7">
+        <v>174159</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="15">
+      <c r="Q3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="19">
+        <v>45488</v>
+      </c>
+      <c r="S3" s="19">
+        <v>45492</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7">
+        <v>174159</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7">
+        <v>174159</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="19">
+        <v>45504</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="14">
         <v>10</v>
       </c>
     </row>
@@ -967,7 +1235,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AI1" xr:uid="{166F3614-9888-4DBB-A924-62945250268D}">
       <formula1>"Days,Months,Years"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L1:M1 Z1:Z2" xr:uid="{9D43B466-6D91-4DC0-8CDA-4507EFBDE367}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L1:M1 Z1:Z5" xr:uid="{9D43B466-6D91-4DC0-8CDA-4507EFBDE367}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
